--- a/data/Country_Map.xlsx
+++ b/data/Country_Map.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="357">
   <si>
     <t xml:space="preserve"> U.S.A. </t>
   </si>
@@ -1087,6 +1087,9 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olympus </t>
   </si>
 </sst>
 </file>
@@ -1158,8 +1161,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="179">
+  <cellStyleXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1346,7 +1353,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="179">
+  <cellStyles count="183">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1436,6 +1443,8 @@
     <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1525,6 +1534,8 @@
     <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1856,8 +1867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="C262" sqref="C262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2072,7 +2083,9 @@
       <c r="B19" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
@@ -2081,7 +2094,9 @@
       <c r="B20" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
@@ -2090,7 +2105,9 @@
       <c r="B21" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
@@ -2110,7 +2127,9 @@
       <c r="B23" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
@@ -2119,7 +2138,9 @@
       <c r="B24" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
@@ -2128,7 +2149,9 @@
       <c r="B25" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
@@ -2159,7 +2182,9 @@
       <c r="B28" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
@@ -2168,7 +2193,9 @@
       <c r="B29" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
@@ -2177,7 +2204,9 @@
       <c r="B30" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
@@ -2186,7 +2215,9 @@
       <c r="B31" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
@@ -2195,7 +2226,9 @@
       <c r="B32" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
@@ -2215,7 +2248,9 @@
       <c r="B34" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
@@ -2224,7 +2259,9 @@
       <c r="B35" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
@@ -2233,7 +2270,9 @@
       <c r="B36" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
@@ -2242,7 +2281,9 @@
       <c r="B37" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
@@ -2251,7 +2292,9 @@
       <c r="B38" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
@@ -2271,7 +2314,9 @@
       <c r="B40" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
@@ -2291,7 +2336,9 @@
       <c r="B42" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
@@ -2300,7 +2347,9 @@
       <c r="B43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="3" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
@@ -2309,7 +2358,9 @@
       <c r="B44" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
@@ -2318,7 +2369,9 @@
       <c r="B45" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
@@ -2327,7 +2380,9 @@
       <c r="B46" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
@@ -2336,7 +2391,9 @@
       <c r="B47" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
@@ -2345,7 +2402,9 @@
       <c r="B48" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C48" s="2"/>
+      <c r="C48" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
@@ -2354,7 +2413,9 @@
       <c r="B49" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C49" s="2"/>
+      <c r="C49" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
@@ -2396,7 +2457,9 @@
       <c r="B53" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C53" s="2"/>
+      <c r="C53" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
@@ -2416,7 +2479,9 @@
       <c r="B55" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
@@ -2425,7 +2490,9 @@
       <c r="B56" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C56" s="2"/>
+      <c r="C56" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
@@ -2434,7 +2501,9 @@
       <c r="B57" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C57" s="2"/>
+      <c r="C57" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
@@ -2476,7 +2545,9 @@
       <c r="B61" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C61" s="2"/>
+      <c r="C61" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
@@ -2485,7 +2556,9 @@
       <c r="B62" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C62" s="2"/>
+      <c r="C62" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
@@ -2505,7 +2578,9 @@
       <c r="B64" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C64" s="2"/>
+      <c r="C64" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
@@ -2514,7 +2589,9 @@
       <c r="B65" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C65" s="2"/>
+      <c r="C65" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
@@ -2523,7 +2600,9 @@
       <c r="B66" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C66" s="2"/>
+      <c r="C66" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
@@ -2532,7 +2611,9 @@
       <c r="B67" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C67" s="2"/>
+      <c r="C67" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
@@ -2541,7 +2622,9 @@
       <c r="B68" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C68" s="2"/>
+      <c r="C68" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
@@ -2550,7 +2633,9 @@
       <c r="B69" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C69" s="2"/>
+      <c r="C69" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
@@ -2581,7 +2666,9 @@
       <c r="B72" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C72" s="2"/>
+      <c r="C72" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
@@ -2590,7 +2677,9 @@
       <c r="B73" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C73" s="2"/>
+      <c r="C73" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
@@ -2611,7 +2700,7 @@
         <v>73</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>73</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2621,7 +2710,9 @@
       <c r="B76" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C76" s="2"/>
+      <c r="C76" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
@@ -2630,7 +2721,9 @@
       <c r="B77" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C77" s="2"/>
+      <c r="C77" s="2" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
@@ -2639,7 +2732,9 @@
       <c r="B78" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C78" s="2"/>
+      <c r="C78" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
@@ -2648,7 +2743,9 @@
       <c r="B79" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C79" s="2"/>
+      <c r="C79" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
@@ -2657,7 +2754,9 @@
       <c r="B80" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C80" s="2"/>
+      <c r="C80" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
@@ -2666,7 +2765,9 @@
       <c r="B81" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C81" s="2"/>
+      <c r="C81" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
@@ -2675,7 +2776,9 @@
       <c r="B82" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C82" s="2"/>
+      <c r="C82" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
@@ -2684,7 +2787,9 @@
       <c r="B83" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C83" s="2"/>
+      <c r="C83" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
@@ -2693,7 +2798,9 @@
       <c r="B84" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C84" s="2"/>
+      <c r="C84" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
@@ -2702,7 +2809,9 @@
       <c r="B85" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C85" s="2"/>
+      <c r="C85" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
@@ -2711,7 +2820,9 @@
       <c r="B86" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C86" s="2"/>
+      <c r="C86" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
@@ -2720,7 +2831,9 @@
       <c r="B87" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C87" s="2"/>
+      <c r="C87" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
@@ -2740,7 +2853,9 @@
       <c r="B89" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C89" s="2"/>
+      <c r="C89" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
@@ -2749,7 +2864,9 @@
       <c r="B90" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C90" s="2"/>
+      <c r="C90" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
@@ -2758,7 +2875,9 @@
       <c r="B91" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C91" s="2"/>
+      <c r="C91" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
@@ -2767,7 +2886,9 @@
       <c r="B92" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C92" s="2"/>
+      <c r="C92" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
@@ -2776,7 +2897,9 @@
       <c r="B93" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C93" s="2"/>
+      <c r="C93" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
@@ -2785,7 +2908,9 @@
       <c r="B94" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C94" s="2"/>
+      <c r="C94" s="2" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
@@ -2794,7 +2919,9 @@
       <c r="B95" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C95" s="2"/>
+      <c r="C95" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
@@ -2814,7 +2941,9 @@
       <c r="B97" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C97" s="2"/>
+      <c r="C97" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
@@ -2823,7 +2952,9 @@
       <c r="B98" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C98" s="2"/>
+      <c r="C98" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
@@ -2832,7 +2963,9 @@
       <c r="B99" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C99" s="2"/>
+      <c r="C99" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
@@ -2841,7 +2974,9 @@
       <c r="B100" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C100" s="2"/>
+      <c r="C100" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
@@ -2850,7 +2985,9 @@
       <c r="B101" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C101" s="2"/>
+      <c r="C101" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
@@ -2859,7 +2996,9 @@
       <c r="B102" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C102" s="2"/>
+      <c r="C102" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
@@ -2901,7 +3040,9 @@
       <c r="B106" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C106" s="2"/>
+      <c r="C106" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
@@ -2932,7 +3073,9 @@
       <c r="B109" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C109" s="2"/>
+      <c r="C109" s="2" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
@@ -2941,7 +3084,9 @@
       <c r="B110" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C110" s="2"/>
+      <c r="C110" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
@@ -2950,7 +3095,9 @@
       <c r="B111" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C111" s="2"/>
+      <c r="C111" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
@@ -2959,7 +3106,9 @@
       <c r="B112" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C112" s="2"/>
+      <c r="C112" s="2" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2" t="s">
@@ -2968,7 +3117,9 @@
       <c r="B113" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C113" s="2"/>
+      <c r="C113" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2" t="s">
@@ -2977,7 +3128,9 @@
       <c r="B114" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C114" s="2"/>
+      <c r="C114" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2" t="s">
@@ -2986,7 +3139,9 @@
       <c r="B115" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C115" s="2"/>
+      <c r="C115" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
@@ -2995,7 +3150,9 @@
       <c r="B116" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C116" s="2"/>
+      <c r="C116" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2" t="s">
@@ -3004,7 +3161,9 @@
       <c r="B117" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C117" s="2"/>
+      <c r="C117" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
@@ -3013,7 +3172,9 @@
       <c r="B118" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C118" s="2"/>
+      <c r="C118" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
@@ -3033,7 +3194,9 @@
       <c r="B120" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C120" s="2"/>
+      <c r="C120" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
@@ -3042,7 +3205,9 @@
       <c r="B121" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C121" s="2"/>
+      <c r="C121" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2" t="s">
@@ -3073,7 +3238,9 @@
       <c r="B124" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C124" s="2"/>
+      <c r="C124" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2" t="s">
@@ -3082,7 +3249,9 @@
       <c r="B125" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C125" s="2"/>
+      <c r="C125" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2" t="s">
@@ -3091,7 +3260,9 @@
       <c r="B126" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C126" s="2"/>
+      <c r="C126" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
@@ -3100,7 +3271,9 @@
       <c r="B127" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C127" s="2"/>
+      <c r="C127" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2" t="s">
@@ -3131,7 +3304,9 @@
       <c r="B130" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C130" s="2"/>
+      <c r="C130" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
@@ -3151,7 +3326,9 @@
       <c r="B132" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C132" s="2"/>
+      <c r="C132" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2" t="s">
@@ -3171,7 +3348,9 @@
       <c r="B134" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C134" s="2"/>
+      <c r="C134" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
@@ -3180,7 +3359,9 @@
       <c r="B135" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C135" s="2"/>
+      <c r="C135" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
@@ -3189,7 +3370,9 @@
       <c r="B136" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C136" s="2"/>
+      <c r="C136" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2" t="s">
@@ -3198,7 +3381,9 @@
       <c r="B137" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C137" s="2"/>
+      <c r="C137" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
@@ -3218,7 +3403,9 @@
       <c r="B139" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C139" s="2"/>
+      <c r="C139" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
@@ -3227,7 +3414,9 @@
       <c r="B140" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C140" s="2"/>
+      <c r="C140" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
@@ -3236,7 +3425,9 @@
       <c r="B141" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C141" s="2"/>
+      <c r="C141" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
@@ -3267,7 +3458,9 @@
       <c r="B144" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C144" s="2"/>
+      <c r="C144" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
@@ -3276,7 +3469,9 @@
       <c r="B145" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C145" s="2"/>
+      <c r="C145" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2" t="s">
@@ -3285,7 +3480,9 @@
       <c r="B146" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C146" s="2"/>
+      <c r="C146" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2" t="s">
@@ -3294,7 +3491,9 @@
       <c r="B147" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C147" s="2"/>
+      <c r="C147" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2" t="s">
@@ -3314,7 +3513,9 @@
       <c r="B149" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C149" s="2"/>
+      <c r="C149" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="2" t="s">
@@ -3323,7 +3524,9 @@
       <c r="B150" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C150" s="2"/>
+      <c r="C150" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="2" t="s">
@@ -3332,7 +3535,9 @@
       <c r="B151" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C151" s="2"/>
+      <c r="C151" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="2" t="s">
@@ -3341,7 +3546,9 @@
       <c r="B152" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C152" s="2"/>
+      <c r="C152" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="2" t="s">
@@ -3350,7 +3557,9 @@
       <c r="B153" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C153" s="2"/>
+      <c r="C153" s="2" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="2" t="s">
@@ -3359,7 +3568,9 @@
       <c r="B154" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C154" s="2"/>
+      <c r="C154" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="2" t="s">
@@ -3368,7 +3579,9 @@
       <c r="B155" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C155" s="2"/>
+      <c r="C155" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
@@ -3377,7 +3590,9 @@
       <c r="B156" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C156" s="2"/>
+      <c r="C156" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
@@ -3419,7 +3634,9 @@
       <c r="B160" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C160" s="2"/>
+      <c r="C160" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="2" t="s">
@@ -3428,7 +3645,9 @@
       <c r="B161" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C161" s="2"/>
+      <c r="C161" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="2" t="s">
@@ -3448,7 +3667,9 @@
       <c r="B163" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C163" s="2"/>
+      <c r="C163" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="2" t="s">
@@ -3457,7 +3678,9 @@
       <c r="B164" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C164" s="2"/>
+      <c r="C164" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="2" t="s">
@@ -3466,7 +3689,9 @@
       <c r="B165" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C165" s="2"/>
+      <c r="C165" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="2" t="s">
@@ -3486,7 +3711,9 @@
       <c r="B167" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C167" s="2"/>
+      <c r="C167" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="2" t="s">
@@ -3495,7 +3722,9 @@
       <c r="B168" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C168" s="2"/>
+      <c r="C168" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="2" t="s">
@@ -3504,7 +3733,9 @@
       <c r="B169" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C169" s="2"/>
+      <c r="C169" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="2" t="s">
@@ -3513,7 +3744,9 @@
       <c r="B170" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C170" s="2"/>
+      <c r="C170" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="2" t="s">
@@ -3522,7 +3755,9 @@
       <c r="B171" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C171" s="2"/>
+      <c r="C171" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="2" t="s">
@@ -3531,7 +3766,9 @@
       <c r="B172" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C172" s="2"/>
+      <c r="C172" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="2" t="s">
@@ -3540,7 +3777,9 @@
       <c r="B173" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C173" s="2"/>
+      <c r="C173" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="2" t="s">
@@ -3571,7 +3810,9 @@
       <c r="B176" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C176" s="2"/>
+      <c r="C176" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2" t="s">
@@ -3580,7 +3821,9 @@
       <c r="B177" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C177" s="2"/>
+      <c r="C177" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2" t="s">
@@ -3589,7 +3832,9 @@
       <c r="B178" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C178" s="2"/>
+      <c r="C178" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2" t="s">
@@ -3620,7 +3865,9 @@
       <c r="B181" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C181" s="2"/>
+      <c r="C181" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="2" t="s">
@@ -3629,7 +3876,9 @@
       <c r="B182" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C182" s="2"/>
+      <c r="C182" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="2" t="s">
@@ -3638,7 +3887,9 @@
       <c r="B183" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C183" s="2"/>
+      <c r="C183" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="2" t="s">
@@ -3647,7 +3898,9 @@
       <c r="B184" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C184" s="2"/>
+      <c r="C184" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="2" t="s">
@@ -3667,7 +3920,9 @@
       <c r="B186" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C186" s="2"/>
+      <c r="C186" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="2" t="s">
@@ -3676,7 +3931,9 @@
       <c r="B187" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C187" s="2"/>
+      <c r="C187" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2" t="s">
@@ -3685,7 +3942,9 @@
       <c r="B188" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C188" s="2"/>
+      <c r="C188" s="2" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2" t="s">
@@ -3694,7 +3953,9 @@
       <c r="B189" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C189" s="2"/>
+      <c r="C189" s="2" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="2" t="s">
@@ -3703,7 +3964,9 @@
       <c r="B190" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C190" s="2"/>
+      <c r="C190" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2" t="s">
@@ -3723,7 +3986,9 @@
       <c r="B192" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C192" s="2"/>
+      <c r="C192" s="2" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="2" t="s">
@@ -3743,7 +4008,9 @@
       <c r="B194" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C194" s="2"/>
+      <c r="C194" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="2" t="s">
@@ -3774,7 +4041,9 @@
       <c r="B197" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C197" s="2"/>
+      <c r="C197" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2" t="s">
@@ -3794,7 +4063,9 @@
       <c r="B199" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C199" s="2"/>
+      <c r="C199" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="2" t="s">
@@ -3803,7 +4074,9 @@
       <c r="B200" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C200" s="2"/>
+      <c r="C200" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2" t="s">
@@ -3823,7 +4096,9 @@
       <c r="B202" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C202" s="2"/>
+      <c r="C202" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="2" t="s">
@@ -3843,7 +4118,9 @@
       <c r="B204" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C204" s="2"/>
+      <c r="C204" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="2" t="s">
@@ -3874,7 +4151,9 @@
       <c r="B207" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C207" s="2"/>
+      <c r="C207" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="2" t="s">
@@ -3883,7 +4162,9 @@
       <c r="B208" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C208" s="2"/>
+      <c r="C208" s="2" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="2" t="s">
@@ -3892,7 +4173,9 @@
       <c r="B209" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C209" s="2"/>
+      <c r="C209" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="2" t="s">
@@ -3901,7 +4184,9 @@
       <c r="B210" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C210" s="2"/>
+      <c r="C210" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="2" t="s">
@@ -3921,7 +4206,9 @@
       <c r="B212" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C212" s="2"/>
+      <c r="C212" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="2" t="s">
@@ -3930,7 +4217,9 @@
       <c r="B213" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C213" s="2"/>
+      <c r="C213" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="2" t="s">
@@ -3994,7 +4283,9 @@
       <c r="B219" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C219" s="2"/>
+      <c r="C219" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2" t="s">
@@ -4003,7 +4294,9 @@
       <c r="B220" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C220" s="2"/>
+      <c r="C220" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="2" t="s">
@@ -4012,7 +4305,9 @@
       <c r="B221" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C221" s="2"/>
+      <c r="C221" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="2" t="s">
@@ -4021,7 +4316,9 @@
       <c r="B222" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C222" s="2"/>
+      <c r="C222" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="2" t="s">
@@ -4030,7 +4327,9 @@
       <c r="B223" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C223" s="2"/>
+      <c r="C223" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2" t="s">
@@ -4039,7 +4338,9 @@
       <c r="B224" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C224" s="2"/>
+      <c r="C224" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2" t="s">
@@ -4048,7 +4349,9 @@
       <c r="B225" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C225" s="2"/>
+      <c r="C225" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="2" t="s">
@@ -4057,7 +4360,9 @@
       <c r="B226" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C226" s="2"/>
+      <c r="C226" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="2" t="s">
@@ -4088,7 +4393,9 @@
       <c r="B229" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C229" s="2"/>
+      <c r="C229" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="2" t="s">
@@ -4108,7 +4415,9 @@
       <c r="B231" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C231" s="2"/>
+      <c r="C231" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="2" t="s">
@@ -4117,7 +4426,9 @@
       <c r="B232" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C232" s="2"/>
+      <c r="C232" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2" t="s">
@@ -4148,7 +4459,9 @@
       <c r="B235" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C235" s="2"/>
+      <c r="C235" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2" t="s">
@@ -4168,7 +4481,9 @@
       <c r="B237" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C237" s="2"/>
+      <c r="C237" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2" t="s">
@@ -4188,7 +4503,9 @@
       <c r="B239" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C239" s="2"/>
+      <c r="C239" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2" t="s">
@@ -4197,7 +4514,9 @@
       <c r="B240" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C240" s="2"/>
+      <c r="C240" s="2" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="2" t="s">
@@ -4217,7 +4536,9 @@
       <c r="B242" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C242" s="2"/>
+      <c r="C242" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="2" t="s">
@@ -4226,7 +4547,9 @@
       <c r="B243" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C243" s="2"/>
+      <c r="C243" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="2" t="s">
@@ -4268,7 +4591,9 @@
       <c r="B247" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C247" s="2"/>
+      <c r="C247" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="2" t="s">
@@ -4277,7 +4602,9 @@
       <c r="B248" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C248" s="2"/>
+      <c r="C248" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="2" t="s">
@@ -4286,7 +4613,9 @@
       <c r="B249" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C249" s="2"/>
+      <c r="C249" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="2" t="s">
@@ -4317,7 +4646,9 @@
       <c r="B252" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C252" s="2"/>
+      <c r="C252" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="2" t="s">
@@ -4337,7 +4668,9 @@
       <c r="B254" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C254" s="2"/>
+      <c r="C254" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="2" t="s">
@@ -4346,7 +4679,9 @@
       <c r="B255" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C255" s="2"/>
+      <c r="C255" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="2" t="s">
@@ -4355,7 +4690,9 @@
       <c r="B256" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C256" s="2"/>
+      <c r="C256" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="2" t="s">
@@ -4364,7 +4701,9 @@
       <c r="B257" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C257" s="2"/>
+      <c r="C257" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="2" t="s">
@@ -4373,7 +4712,9 @@
       <c r="B258" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C258" s="2"/>
+      <c r="C258" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="2" t="s">
@@ -4382,7 +4723,9 @@
       <c r="B259" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C259" s="2"/>
+      <c r="C259" s="3" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="2" t="s">
@@ -4391,7 +4734,9 @@
       <c r="B260" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C260" s="2"/>
+      <c r="C260" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="2" t="s">

--- a/data/Country_Map.xlsx
+++ b/data/Country_Map.xlsx
@@ -1161,8 +1161,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="183">
+  <cellStyleXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1353,7 +1355,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="183">
+  <cellStyles count="185">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1445,6 +1447,7 @@
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1536,6 +1539,7 @@
     <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1867,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="C262" sqref="C262"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1930,7 +1934,7 @@
         <v>262</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:3">

--- a/data/Country_Map.xlsx
+++ b/data/Country_Map.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$261</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="352">
   <si>
     <t xml:space="preserve"> U.S.A. </t>
   </si>
@@ -45,24 +48,15 @@
     <t xml:space="preserve"> Germany </t>
   </si>
   <si>
-    <t xml:space="preserve"> United States of America </t>
-  </si>
-  <si>
     <t xml:space="preserve"> U.S.A. with a criminal record, listed in Marine records as a deserter </t>
   </si>
   <si>
     <t xml:space="preserve"> Zenn-La </t>
   </si>
   <si>
-    <t xml:space="preserve"> United States of America with no criminal record </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Wakanda </t>
   </si>
   <si>
-    <t xml:space="preserve"> Former citizen of Russia/U.S.S.R., resident in United States of America under extended visa authorized by S.H.I.E.L.D. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Inapplicable </t>
   </si>
   <si>
@@ -84,12 +78,6 @@
     <t xml:space="preserve"> Dual citizenship in K'un-Lun and the U.S.A. </t>
   </si>
   <si>
-    <t xml:space="preserve"> USA, currently residing in England </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Former citizen of Transia, naturalized citizen of the United States of America </t>
-  </si>
-  <si>
     <t xml:space="preserve"> U.S.A., criminal record, later acquitted </t>
   </si>
   <si>
@@ -213,9 +201,6 @@
     <t xml:space="preserve"> U.S.A. (criminal record) </t>
   </si>
   <si>
-    <t xml:space="preserve"> England </t>
-  </si>
-  <si>
     <t xml:space="preserve"> United States </t>
   </si>
   <si>
@@ -300,9 +285,6 @@
     <t xml:space="preserve"> Halfworld </t>
   </si>
   <si>
-    <t xml:space="preserve"> United States of america with a criminal record </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Royal family of Atlantis </t>
   </si>
   <si>
@@ -465,9 +447,6 @@
     <t xml:space="preserve"> future citizen of Nueva York </t>
   </si>
   <si>
-    <t xml:space="preserve"> Citizen of the United States of America </t>
-  </si>
-  <si>
     <t xml:space="preserve"> U.S. citizen with a criminal record </t>
   </si>
   <si>
@@ -558,9 +537,6 @@
     <t xml:space="preserve"> Planet Traan, Sub-Atomica system, Microverse  dimension </t>
   </si>
   <si>
-    <t xml:space="preserve"> Formerly citizen of the United States of America with no criminal record, currently citizen of the United Federation of Planets in an alternate future </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Switzerland </t>
   </si>
   <si>
@@ -597,18 +573,12 @@
     <t xml:space="preserve"> none </t>
   </si>
   <si>
-    <t xml:space="preserve"> England, possibly legally deceased </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Citizen of Knowhere </t>
   </si>
   <si>
     <t xml:space="preserve"> Citizen of the Under-City </t>
   </si>
   <si>
-    <t xml:space="preserve"> United States of America, officially deceased </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Asgard, with a criminal record, pardoned </t>
   </si>
   <si>
@@ -627,9 +597,6 @@
     <t xml:space="preserve"> Negative Zone </t>
   </si>
   <si>
-    <t xml:space="preserve"> United States of America on Earth-712 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Panto-9 </t>
   </si>
   <si>
@@ -645,18 +612,12 @@
     <t xml:space="preserve">   USA </t>
   </si>
   <si>
-    <t xml:space="preserve"> United States of America of Earth-712 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Kaliklak </t>
   </si>
   <si>
     <t xml:space="preserve"> Apocalypse's Empire, Earth-295, formerly U.S.A., Earth-295 </t>
   </si>
   <si>
-    <t xml:space="preserve"> United States of America, Earth </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Citizen of K'un-Lun </t>
   </si>
   <si>
@@ -807,9 +768,6 @@
     <t>Outer Space</t>
   </si>
   <si>
-    <t>United States of America</t>
-  </si>
-  <si>
     <t>Dual Citizen</t>
   </si>
   <si>
@@ -852,9 +810,6 @@
     <t>Germany</t>
   </si>
   <si>
-    <t>England</t>
-  </si>
-  <si>
     <t>Duckworld</t>
   </si>
   <si>
@@ -876,9 +831,6 @@
     <t>Croatia</t>
   </si>
   <si>
-    <t>china</t>
-  </si>
-  <si>
     <t>Australia</t>
   </si>
   <si>
@@ -1090,6 +1042,42 @@
   </si>
   <si>
     <t xml:space="preserve">Olympus </t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> United States with no criminal record </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Former citizen of Russia/U.S.S.R., resident in United States under extended visa authorized by S.H.I.E.L.D. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Former citizen of Transia, naturalized citizen of the United States </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> United States with a criminal record </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Formerly citizen of the United States with no criminal record, currently citizen of the United Federation of Planets in an alternate future </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> United States, officially deceased </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> United States on Earth-712 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> United States of Earth-712 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> United States, Earth </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USA, currently residing in United Kingdom </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> United Kingdom, possibly legally deceased </t>
   </si>
 </sst>
 </file>
@@ -1161,8 +1149,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="185">
+  <cellStyleXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1355,7 +1351,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="185">
+  <cellStyles count="193">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1448,6 +1444,10 @@
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1540,6 +1540,10 @@
     <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1872,7 +1876,7 @@
   <dimension ref="A1:C261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1884,13 +1888,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1">
@@ -1898,10 +1902,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1909,10 +1913,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1920,10 +1924,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1931,10 +1935,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1942,10 +1946,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1953,10 +1957,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1964,10 +1968,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1975,2785 +1979,2786 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>341</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>342</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>350</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>343</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>64</v>
+        <v>210</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>93</v>
+        <v>344</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="2" t="s">
-        <v>148</v>
+        <v>232</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="2" t="s">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="2" t="s">
-        <v>192</v>
+        <v>351</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2" t="s">
-        <v>195</v>
+        <v>346</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="2" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="2" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="2" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="2" t="s">
-        <v>202</v>
+        <v>347</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="2" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="2" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="2" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="2" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="2" t="s">
-        <v>208</v>
+        <v>348</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="2" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="2" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="2" t="s">
-        <v>211</v>
+        <v>349</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="2" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="2" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="2" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="2" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="2" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="2" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="2" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="2" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="2" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="2" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="2" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="2" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="2" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="2" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="2" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="2" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="2" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="2" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="2" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="2" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="2" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="2" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="2" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="2" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="2" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="2" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="2" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="2" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="2" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="2" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="2" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="2" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="2" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B261"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
